--- a/Odyssey #2/G-Code/GEIA QUAL/08-SOIC.xlsx
+++ b/Odyssey #2/G-Code/GEIA QUAL/08-SOIC.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Manufacturing\Robotic Solder\Odyssey Programs\Odyssey #2\G-Code\GEIA QUAL\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="105" windowWidth="18195" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Channel data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -79,6 +84,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1692,11 +1700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="72946816"/>
-        <c:axId val="72854912"/>
+        <c:axId val="381023232"/>
+        <c:axId val="381020880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72946816"/>
+        <c:axId val="381023232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1721,12 +1729,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72854912"/>
+        <c:crossAx val="381020880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="72854912"/>
+        <c:axId val="381020880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,7 +1760,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72946816"/>
+        <c:crossAx val="381023232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1774,15 +1782,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>352424</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1847,7 +1855,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1882,7 +1890,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2094,7 +2102,7 @@
   <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D109" sqref="D1:D1048576"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
